--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Sugity Bot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCIT552.SC-IT-552\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\5RI3CX89\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6ED77A6-19F0-4000-A796-10D825A3D9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Database!A1:D445</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>nik</t>
   </si>
@@ -60,26 +71,210 @@
     <t>45870911</t>
   </si>
   <si>
+    <t>Achmad Saugi</t>
+  </si>
+  <si>
+    <t>Pak Saugi</t>
+  </si>
+  <si>
+    <t>peserta</t>
+  </si>
+  <si>
+    <t>75581017</t>
+  </si>
+  <si>
+    <t>Cory Fuji Ayu Lestari</t>
+  </si>
+  <si>
+    <t>76740318</t>
+  </si>
+  <si>
+    <t>Teguh Aprilyanto</t>
+  </si>
+  <si>
+    <t>Mas Teguh</t>
+  </si>
+  <si>
+    <t>68230815</t>
+  </si>
+  <si>
+    <t>Ridwan</t>
+  </si>
+  <si>
+    <t>Mas Ridwan</t>
+  </si>
+  <si>
+    <t>74890817</t>
+  </si>
+  <si>
+    <t>Nuraini Susmita</t>
+  </si>
+  <si>
+    <t>Mba Aini</t>
+  </si>
+  <si>
+    <t>75551017</t>
+  </si>
+  <si>
+    <t>Aprilia Dhina Aryandhi</t>
+  </si>
+  <si>
+    <t>Mba Dina</t>
+  </si>
+  <si>
+    <t>44340511</t>
+  </si>
+  <si>
+    <t>Rahmalia Novianti</t>
+  </si>
+  <si>
+    <t>Mba Dora</t>
+  </si>
+  <si>
+    <t>8950700</t>
+  </si>
+  <si>
+    <t>Ismail Marzuki</t>
+  </si>
+  <si>
+    <t>Pak Maing</t>
+  </si>
+  <si>
+    <t>51150812</t>
+  </si>
+  <si>
+    <t>Budi Susilo</t>
+  </si>
+  <si>
+    <t>16310403</t>
+  </si>
+  <si>
+    <t>Mulyady</t>
+  </si>
+  <si>
+    <t>42101010</t>
+  </si>
+  <si>
+    <t>Prabinar Novendi Putra</t>
+  </si>
+  <si>
+    <t>Pak Binar</t>
+  </si>
+  <si>
+    <t>11250401</t>
+  </si>
+  <si>
+    <t>Ariningsih</t>
+  </si>
+  <si>
+    <t>Bu Ari</t>
+  </si>
+  <si>
+    <t>39240110</t>
+  </si>
+  <si>
+    <t>Attila Larasati</t>
+  </si>
+  <si>
+    <t>Bu Laras</t>
+  </si>
+  <si>
+    <t>0150496</t>
+  </si>
+  <si>
+    <t>Yulmen Kurniawan</t>
+  </si>
+  <si>
+    <t>Pak Yulmen</t>
+  </si>
+  <si>
+    <t>Bu Tari</t>
+  </si>
+  <si>
+    <t>Mas Budi</t>
+  </si>
+  <si>
+    <t>Pak Mulyady</t>
+  </si>
+  <si>
+    <t>Kelik Andesti</t>
+  </si>
+  <si>
+    <t>66300515</t>
+  </si>
+  <si>
+    <t>Mba Desti</t>
+  </si>
+  <si>
     <t>Ido Sama 🙏🏼</t>
   </si>
   <si>
-    <t>Nabila Nurfajriyah</t>
-  </si>
-  <si>
-    <t>Dek Ilaa</t>
+    <t>6285716783151</t>
+  </si>
+  <si>
+    <t>62895324443540</t>
+  </si>
+  <si>
+    <t>6285716441030</t>
+  </si>
+  <si>
+    <t>6289630905237</t>
+  </si>
+  <si>
+    <t>6285883341200</t>
+  </si>
+  <si>
+    <t>6289666306562</t>
+  </si>
+  <si>
+    <t>6289635079636</t>
+  </si>
+  <si>
+    <t>6281299142272</t>
+  </si>
+  <si>
+    <t>6285881161502</t>
+  </si>
+  <si>
+    <t>6285695758175</t>
+  </si>
+  <si>
+    <t>6285780581204</t>
+  </si>
+  <si>
+    <t>628128286921</t>
+  </si>
+  <si>
+    <t>6281287061011</t>
+  </si>
+  <si>
+    <t>628121362815</t>
+  </si>
+  <si>
+    <t>86000822</t>
+  </si>
+  <si>
+    <t>Albert Sembiring</t>
+  </si>
+  <si>
+    <t>Mas Albert</t>
+  </si>
+  <si>
+    <t>6282276239421</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,16 +295,65 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -374,23 +618,18 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
@@ -426,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -434,46 +673,383 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>62895324443540</v>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G3" si="0">ABS(F2)&amp;"@s.whatsapp.net"</f>
+        <f t="shared" ref="G2:G15" si="0">ABS(F2)&amp;"@s.whatsapp.net"</f>
         <v>62895324443540@s.whatsapp.net</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>6285716783151@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>6285716441030@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>6289630905237@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>6285883341200@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>6289666306562@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>628990709823</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>628990709823@s.whatsapp.net</v>
+      <c r="F8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>6289635079636@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>6281299142272@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>6285881161502@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>6285695758175@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>6285780581204@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>628128286921@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>6281287061011@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>628121362815@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16" si="1">ABS(F16)&amp;"@s.whatsapp.net"</f>
+        <v>6282276239421@s.whatsapp.net</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="mailto:62895324443540@s.whatsapp.net"/>
+    <hyperlink ref="G2" r:id="rId1" display="mailto:62895324443540@s.whatsapp.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" display="mailto:62895324443540@s.whatsapp.net" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <ignoredErrors>
-    <ignoredError sqref="A3 A1:B1 D1:G1 A2:B2 D2:E2 G2 D3 G3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>